--- a/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
+++ b/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -462,9 +462,429 @@
         <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_AppleId_approve_Individual_supplier_management_BankDetails/step16_test_completed_success.png</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B4" t="str">
+        <v>TC002A</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Web_Admin_Gmail_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D4" t="str">
+        <v>7/21/2025, 10:32:33 AM</v>
+      </c>
+      <c r="E4" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F4" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Gmail_approve_supplier_management_CompanyInfo/step21_test_completed_success.png</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B5" t="str">
+        <v>TC002B</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Web_Admin_Gmail_Approve_SupplierManagement_BankDetails_HappyFlow</v>
+      </c>
+      <c r="D5" t="str">
+        <v>7/21/2025, 10:33:15 AM</v>
+      </c>
+      <c r="E5" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F5" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Gmail_approve_supplier_management_BankDetails/step16_test_completed_success.png</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B6" t="str">
+        <v>TC001C</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Web_Admin_FB_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D6" t="str">
+        <v>7/21/2025, 2:26:48 PM</v>
+      </c>
+      <c r="E6" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F6" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B7" t="str">
+        <v>TC004C</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Web_Admin_AppleId_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D7" t="str">
+        <v>7/21/2025, 2:42:36 PM</v>
+      </c>
+      <c r="E7" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F7" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_FB_Company_approve_supplier_management_CompanyInfo/step20_test_completed_success.png</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B8" t="str">
+        <v>TC004D</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Web_Admin_AppleId_Company_Approve_SupplierManagement_BankDetails_HappyFlow</v>
+      </c>
+      <c r="D8" t="str">
+        <v>7/21/2025, 3:40:37 PM</v>
+      </c>
+      <c r="E8" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F8" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_FB_Company_approve_supplier_management_BankDetails/step13_test_completed_success.png</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B9" t="str">
+        <v>TC003C</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D9" t="str">
+        <v>7/21/2025, 5:12:47 PM</v>
+      </c>
+      <c r="E9" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F9" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Email_Company_approve_supplier_management_CompanyInfo/step7_error.png</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B10" t="str">
+        <v>TC003C</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D10" t="str">
+        <v>7/21/2025, 5:14:12 PM</v>
+      </c>
+      <c r="E10" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F10" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Email_Company_approve_supplier_management_CompanyInfo/step7_error.png</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B11" t="str">
+        <v>TC003C</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D11" t="str">
+        <v>7/21/2025, 5:15:20 PM</v>
+      </c>
+      <c r="E11" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F11" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Email_Company_approve_supplier_management_CompanyInfo/step7_error.png</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B12" t="str">
+        <v>TC003C</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D12" t="str">
+        <v>7/21/2025, 5:16:39 PM</v>
+      </c>
+      <c r="E12" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F12" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Email_Company_approve_supplier_management_CompanyInfo/step7_error.png</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B13" t="str">
+        <v>TC003C</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D13" t="str">
+        <v>7/21/2025, 5:18:12 PM</v>
+      </c>
+      <c r="E13" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F13" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Email_Company_approve_supplier_management_CompanyInfo/step7_error.png</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B14" t="str">
+        <v>TC003C</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D14" t="str">
+        <v>7/21/2025, 5:20:04 PM</v>
+      </c>
+      <c r="E14" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F14" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Email_Company_approve_supplier_management_CompanyInfo/step7_error.png</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B15" t="str">
+        <v>TC003D</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_BankDetails_HappyFlow</v>
+      </c>
+      <c r="D15" t="str">
+        <v>7/21/2025, 5:20:57 PM</v>
+      </c>
+      <c r="E15" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F15" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Email_Company_approve_supplier_management_BankDetails/step7_error.png</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B16" t="str">
+        <v>TC003D</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_BankDetails_HappyFlow</v>
+      </c>
+      <c r="D16" t="str">
+        <v>7/21/2025, 5:27:17 PM</v>
+      </c>
+      <c r="E16" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F16" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Email_Company_approve_supplier_management_BankDetails/step13_test_completed_success.png</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B17" t="str">
+        <v>TC003C</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D17" t="str">
+        <v>7/21/2025, 5:28:50 PM</v>
+      </c>
+      <c r="E17" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F17" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Email_Company_approve_supplier_management_CompanyInfo/step7_error.png</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B18" t="str">
+        <v>TC003C</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D18" t="str">
+        <v>7/21/2025, 5:31:25 PM</v>
+      </c>
+      <c r="E18" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F18" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B19" t="str">
+        <v>TC003C</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D19" t="str">
+        <v>7/21/2025, 5:34:59 PM</v>
+      </c>
+      <c r="E19" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F19" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B20" t="str">
+        <v>TC003C</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D20" t="str">
+        <v>7/21/2025, 5:36:23 PM</v>
+      </c>
+      <c r="E20" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F20" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Email_Company_approve_supplier_management_CompanyInfo/step16_test_completed_success.png</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B21" t="str">
+        <v>TC003C</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_CompanyInfo_HappyFlow</v>
+      </c>
+      <c r="D21" t="str">
+        <v>7/21/2025, 5:52:28 PM</v>
+      </c>
+      <c r="E21" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F21" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B22" t="str">
+        <v>TC003C</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D22" t="str">
+        <v>7/21/2025, 6:10:20 PM</v>
+      </c>
+      <c r="E22" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F22" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Email_Company_approve_supplier_management_CompanyInfo/step16_test_completed_success.png</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B23" t="str">
+        <v>TC004D</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Web_Admin_AppleId_Company_Approve_SupplierManagement_BankDetails_HappyFlow</v>
+      </c>
+      <c r="D23" t="str">
+        <v>7/21/2025, 6:12:19 PM</v>
+      </c>
+      <c r="E23" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F23" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B24" t="str">
+        <v>TC003D</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Web_Admin_Email_Company_Approve_SupplierManagement_BankDetails_HappyFlow</v>
+      </c>
+      <c r="D24" t="str">
+        <v>7/21/2025, 6:12:50 PM</v>
+      </c>
+      <c r="E24" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F24" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_Email_Company_approve_supplier_management_BankDetails/step13_test_completed_success.png</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
+++ b/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
@@ -1,80 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567FFE12-EC4F-9341-8DF7-0E278035B208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="WEB_Test_Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>TC ID</t>
-  </si>
-  <si>
-    <t>Test Scenario</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>WEB_AdminLogin</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>TC001C</t>
-  </si>
-  <si>
-    <t>Web_Admin_FB_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</t>
-  </si>
-  <si>
-    <t>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_FB_Company_approve_supplier_management_CompanyInfo/step20_test_completed_success.png</t>
-  </si>
-  <si>
-    <t>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_FB_Company_approve_supplier_management_BankDetails/step13_test_completed_success.png</t>
-  </si>
-  <si>
-    <t>7/23/2025, 9:33:55 AM</t>
-  </si>
-  <si>
-    <t>TC001D</t>
-  </si>
-  <si>
-    <t>Web_Admin_FB_Company_Approve_SupplierManagement_BankDetails_HappyFlow</t>
-  </si>
-  <si>
-    <t>7/23/2025, 9:35:13 AM</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -443,79 +396,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Module</v>
+      </c>
+      <c r="B1" t="str">
+        <v>TC ID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Test Scenario</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Result</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Screenshot</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B2" t="str">
+        <v>TC001C</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Web_Admin_FB_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D2" t="str">
+        <v>7/23/2025, 9:33:55 AM</v>
+      </c>
+      <c r="E2" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F2" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_FB_Company_approve_supplier_management_CompanyInfo/step20_test_completed_success.png</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B3" t="str">
+        <v>TC001D</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Web_Admin_FB_Company_Approve_SupplierManagement_BankDetails_HappyFlow</v>
+      </c>
+      <c r="D3" t="str">
+        <v>7/23/2025, 9:35:13 AM</v>
+      </c>
+      <c r="E3" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F3" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_FB_Company_approve_supplier_management_BankDetails/step13_test_completed_success.png</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B4" t="str">
+        <v>TC002A</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Web_Admin_Gmail_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D4" t="str">
+        <v>8/12/2025, 3:57:22 PM</v>
+      </c>
+      <c r="E4" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B5" t="str">
+        <v>TC001C</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Web_Admin_FB_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D5" t="str">
+        <v>8/12/2025, 3:57:22 PM</v>
+      </c>
+      <c r="E5" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F5" t="str">
+        <v>N/A</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
+++ b/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -502,9 +502,69 @@
         <v>N/A</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B6" t="str">
+        <v>TC001A</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Web_Admin_FB_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D6" t="str">
+        <v>8/15/2025, 12:23:52 PM</v>
+      </c>
+      <c r="E6" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F6" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_FB_approve_supplier_management_CompanyInfo/step1_error.png</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B7" t="str">
+        <v>TC001A</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Web_Admin_FB_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D7" t="str">
+        <v>8/15/2025, 12:25:03 PM</v>
+      </c>
+      <c r="E7" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B8" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D8" t="str">
+        <v>8/15/2025, 12:46:47 PM</v>
+      </c>
+      <c r="E8" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
+++ b/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -562,9 +562,69 @@
         <v>Screenshot failed</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B9" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D9" t="str">
+        <v>8/15/2025, 3:16:14 PM</v>
+      </c>
+      <c r="E9" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>WEB_ScanQR_Logistic</v>
+      </c>
+      <c r="B10" t="str">
+        <v>TC0005B1</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Web_Email_RTS_ScanQR_Logistic_PurchaseOrder</v>
+      </c>
+      <c r="D10" t="str">
+        <v>8/15/2025, 4:26:22 PM</v>
+      </c>
+      <c r="E10" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F10" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step6_test_completed.png</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>WEB_ScanQR_Logistic</v>
+      </c>
+      <c r="B11" t="str">
+        <v>TC0005B1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Web_Email_RTS_ScanQR_Logistic_PurchaseOrder</v>
+      </c>
+      <c r="D11" t="str">
+        <v>8/18/2025, 2:18:38 PM</v>
+      </c>
+      <c r="E11" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F11" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step6_test_completed.png</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
+++ b/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -622,9 +622,609 @@
         <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step6_test_completed.png</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>WEB_ScanQR_Logistic</v>
+      </c>
+      <c r="B12" t="str">
+        <v>TC0005B1</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Web_Email_RTS_ScanQR_Logistic_PurchaseOrder</v>
+      </c>
+      <c r="D12" t="str">
+        <v>8/19/2025, 11:17:01 AM</v>
+      </c>
+      <c r="E12" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F12" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step6_test_completed.png</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>WEB_ScanQR_Logistic</v>
+      </c>
+      <c r="B13" t="str">
+        <v>TC0005B1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Web_Email_RTS_ScanQR_Logistic_PurchaseOrder</v>
+      </c>
+      <c r="D13" t="str">
+        <v>8/19/2025, 11:17:55 AM</v>
+      </c>
+      <c r="E13" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F13" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step6_test_completed.png</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>WEB_ScanQR_Logistic</v>
+      </c>
+      <c r="B14" t="str">
+        <v>TC0005B1</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Web_Email_RTS_ScanQR_Logistic_PurchaseOrder</v>
+      </c>
+      <c r="D14" t="str">
+        <v>8/19/2025, 11:27:52 AM</v>
+      </c>
+      <c r="E14" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F14" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step6_test_completed.png</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>WEB_ScanQR_Logistic</v>
+      </c>
+      <c r="B15" t="str">
+        <v>TC0005B1</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Web_Email_RTS_ScanQR_Logistic_PurchaseOrder</v>
+      </c>
+      <c r="D15" t="str">
+        <v>8/19/2025, 11:29:35 AM</v>
+      </c>
+      <c r="E15" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F15" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step6_test_completed.png</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>WEB_ScanQR_Logistic</v>
+      </c>
+      <c r="B16" t="str">
+        <v>TC0005B1</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Web_Email_RTS_ScanQR_Logistic_PurchaseOrder</v>
+      </c>
+      <c r="D16" t="str">
+        <v>8/19/2025, 11:39:49 AM</v>
+      </c>
+      <c r="E16" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F16" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step7_file_selected.png</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>WEB_ScanQR_Logistic</v>
+      </c>
+      <c r="B17" t="str">
+        <v>TC0005B1</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Web_Email_RTS_ScanQR_Logistic_PurchaseOrder</v>
+      </c>
+      <c r="D17" t="str">
+        <v>8/19/2025, 11:57:17 AM</v>
+      </c>
+      <c r="E17" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F17" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step7_file_selected.png</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>WEB_ScanQR_Logistic</v>
+      </c>
+      <c r="B18" t="str">
+        <v>TC0005B1</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Web_Email_RTS_ScanQR_Logistic_PurchaseOrder</v>
+      </c>
+      <c r="D18" t="str">
+        <v>8/19/2025, 11:58:04 AM</v>
+      </c>
+      <c r="E18" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F18" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step7_file_selected.png</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>WEB_ScanQR_Logistic</v>
+      </c>
+      <c r="B19" t="str">
+        <v>TC0005B1</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Web_Email_RTS_ScanQR_Logistic_PurchaseOrder</v>
+      </c>
+      <c r="D19" t="str">
+        <v>8/19/2025, 11:59:41 AM</v>
+      </c>
+      <c r="E19" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F19" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step7_file_selected.png</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>WEB_ScanQR_Logistic</v>
+      </c>
+      <c r="B20" t="str">
+        <v>TC0005B1</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Web_Email_RTS_ScanQR_Logistic_PurchaseOrder</v>
+      </c>
+      <c r="D20" t="str">
+        <v>8/19/2025, 12:01:39 PM</v>
+      </c>
+      <c r="E20" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F20" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step7_file_selected.png</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B21" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D21" t="str">
+        <v>8/19/2025, 12:26:12 PM</v>
+      </c>
+      <c r="E21" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F21" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic/step7_search_quotation_opened.png</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B22" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D22" t="str">
+        <v>8/19/2025, 12:28:44 PM</v>
+      </c>
+      <c r="E22" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F22" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step7_search_quotation_opened.png</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B23" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D23" t="str">
+        <v>8/19/2025, 12:29:36 PM</v>
+      </c>
+      <c r="E23" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F23" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step7_search_quotation_opened.png</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B24" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D24" t="str">
+        <v>8/19/2025, 12:31:09 PM</v>
+      </c>
+      <c r="E24" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B25" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D25" t="str">
+        <v>8/19/2025, 12:35:15 PM</v>
+      </c>
+      <c r="E25" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B26" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D26" t="str">
+        <v>8/19/2025, 12:36:44 PM</v>
+      </c>
+      <c r="E26" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F26" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step8_error.png</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B27" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D27" t="str">
+        <v>8/19/2025, 12:38:12 PM</v>
+      </c>
+      <c r="E27" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F27" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step8_error.png</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B28" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D28" t="str">
+        <v>8/19/2025, 12:41:28 PM</v>
+      </c>
+      <c r="E28" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F28" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step8_error.png</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B29" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D29" t="str">
+        <v>8/19/2025, 12:45:40 PM</v>
+      </c>
+      <c r="E29" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F29" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step8_error.png</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B30" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D30" t="str">
+        <v>8/19/2025, 12:48:52 PM</v>
+      </c>
+      <c r="E30" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F30" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step8_error.png</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B31" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D31" t="str">
+        <v>8/19/2025, 12:51:55 PM</v>
+      </c>
+      <c r="E31" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F31" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step8_error.png</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B32" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D32" t="str">
+        <v>8/19/2025, 12:54:30 PM</v>
+      </c>
+      <c r="E32" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B33" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D33" t="str">
+        <v>8/19/2025, 12:55:35 PM</v>
+      </c>
+      <c r="E33" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B34" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D34" t="str">
+        <v>8/19/2025, 12:57:54 PM</v>
+      </c>
+      <c r="E34" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B35" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D35" t="str">
+        <v>8/19/2025, 12:59:47 PM</v>
+      </c>
+      <c r="E35" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B36" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D36" t="str">
+        <v>8/19/2025, 1:03:28 PM</v>
+      </c>
+      <c r="E36" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F36" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step10_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B37" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D37" t="str">
+        <v>8/19/2025, 1:07:07 PM</v>
+      </c>
+      <c r="E37" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B38" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D38" t="str">
+        <v>8/19/2025, 3:32:49 PM</v>
+      </c>
+      <c r="E38" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F38" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step8_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B39" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D39" t="str">
+        <v>8/19/2025, 3:37:13 PM</v>
+      </c>
+      <c r="E39" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B40" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D40" t="str">
+        <v>8/19/2025, 3:37:27 PM</v>
+      </c>
+      <c r="E40" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B41" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D41" t="str">
+        <v>8/19/2025, 3:41:35 PM</v>
+      </c>
+      <c r="E41" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F41" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
+++ b/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1222,9 +1222,589 @@
         <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B42" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D42" t="str">
+        <v>8/20/2025, 10:58:41 AM</v>
+      </c>
+      <c r="E42" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F42" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step9_begin_grading.png</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B43" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D43" t="str">
+        <v>8/20/2025, 11:06:56 AM</v>
+      </c>
+      <c r="E43" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B44" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D44" t="str">
+        <v>8/20/2025, 11:08:06 AM</v>
+      </c>
+      <c r="E44" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B45" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D45" t="str">
+        <v>8/20/2025, 11:10:15 AM</v>
+      </c>
+      <c r="E45" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B46" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D46" t="str">
+        <v>8/20/2025, 11:11:18 AM</v>
+      </c>
+      <c r="E46" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B47" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D47" t="str">
+        <v>8/20/2025, 11:11:59 AM</v>
+      </c>
+      <c r="E47" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F47" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step10_grading_item.png</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B48" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D48" t="str">
+        <v>8/20/2025, 11:17:03 AM</v>
+      </c>
+      <c r="E48" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F48" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step9_save.png</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B49" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D49" t="str">
+        <v>8/20/2025, 11:17:30 AM</v>
+      </c>
+      <c r="E49" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F49" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step8_grading_item.png</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B50" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D50" t="str">
+        <v>8/20/2025, 11:21:45 AM</v>
+      </c>
+      <c r="E50" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F50" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step8_grading_item.png</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B51" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D51" t="str">
+        <v>8/20/2025, 11:26:57 AM</v>
+      </c>
+      <c r="E51" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F51" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step8_error.png</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B52" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D52" t="str">
+        <v>8/20/2025, 11:28:51 AM</v>
+      </c>
+      <c r="E52" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F52" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step8_error.png</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B53" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D53" t="str">
+        <v>8/20/2025, 11:29:28 AM</v>
+      </c>
+      <c r="E53" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F53" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step8_grading_item.png</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B54" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D54" t="str">
+        <v>8/20/2025, 11:46:46 AM</v>
+      </c>
+      <c r="E54" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F54" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step8_submit_grading.png</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B55" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D55" t="str">
+        <v>8/20/2025, 11:49:46 AM</v>
+      </c>
+      <c r="E55" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F55" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step9_file_selected.png</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B56" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D56" t="str">
+        <v>8/20/2025, 11:52:08 AM</v>
+      </c>
+      <c r="E56" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B57" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D57" t="str">
+        <v>8/20/2025, 11:54:14 AM</v>
+      </c>
+      <c r="E57" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B58" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D58" t="str">
+        <v>8/20/2025, 11:55:35 AM</v>
+      </c>
+      <c r="E58" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F58" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step8_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B59" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D59" t="str">
+        <v>8/20/2025, 11:58:31 AM</v>
+      </c>
+      <c r="E59" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F59" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step8_error.png</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B60" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D60" t="str">
+        <v>8/20/2025, 12:00:24 PM</v>
+      </c>
+      <c r="E60" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F60" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step9_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B61" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D61" t="str">
+        <v>8/20/2025, 12:18:49 PM</v>
+      </c>
+      <c r="E61" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F61" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B62" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D62" t="str">
+        <v>8/20/2025, 12:20:01 PM</v>
+      </c>
+      <c r="E62" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B63" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D63" t="str">
+        <v>8/20/2025, 12:23:12 PM</v>
+      </c>
+      <c r="E63" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F63" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step11_error.png</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B64" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D64" t="str">
+        <v>8/20/2025, 12:25:53 PM</v>
+      </c>
+      <c r="E64" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F64" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step11_error.png</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B65" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D65" t="str">
+        <v>8/20/2025, 12:30:28 PM</v>
+      </c>
+      <c r="E65" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B66" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D66" t="str">
+        <v>8/20/2025, 12:31:00 PM</v>
+      </c>
+      <c r="E66" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F66" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step11_error.png</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B67" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D67" t="str">
+        <v>8/20/2025, 12:32:03 PM</v>
+      </c>
+      <c r="E67" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B68" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D68" t="str">
+        <v>8/20/2025, 12:34:50 PM</v>
+      </c>
+      <c r="E68" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F68" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B69" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D69" t="str">
+        <v>8/20/2025, 12:36:31 PM</v>
+      </c>
+      <c r="E69" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B70" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D70" t="str">
+        <v>8/20/2025, 12:36:38 PM</v>
+      </c>
+      <c r="E70" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F70" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step14_approve_signoff_grading.png</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F70"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
+++ b/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1802,9 +1802,29 @@
         <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step14_approve_signoff_grading.png</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B71" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D71" t="str">
+        <v>8/20/2025, 6:53:55 PM</v>
+      </c>
+      <c r="E71" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F70"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F71"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
+++ b/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1822,9 +1822,3989 @@
         <v>Screenshot failed</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B72" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D72" t="str">
+        <v>8/21/2025, 12:23:08 PM</v>
+      </c>
+      <c r="E72" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F72" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step1_error.png</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B73" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D73" t="str">
+        <v>8/21/2025, 1:02:35 PM</v>
+      </c>
+      <c r="E73" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B74" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D74" t="str">
+        <v>8/21/2025, 1:04:21 PM</v>
+      </c>
+      <c r="E74" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B75" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D75" t="str">
+        <v>8/21/2025, 1:06:21 PM</v>
+      </c>
+      <c r="E75" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F75" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Financ_Approval_PurchaseOrder/step9_submit.png</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B76" t="str">
+        <v>TC005E1</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Web_Admin_Email_RTS_Finance_BatchPending_PurchaseOrder</v>
+      </c>
+      <c r="D76" t="str">
+        <v>8/21/2025, 1:08:11 PM</v>
+      </c>
+      <c r="E76" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F76" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_BatchPending_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B77" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D77" t="str">
+        <v>8/21/2025, 1:10:14 PM</v>
+      </c>
+      <c r="E77" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F77" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Financ_Approval_PurchaseOrder/step9_submit.png</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B78" t="str">
+        <v>TC005E1</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Web_Admin_Email_RTS_Finance_BatchPending_PurchaseOrder</v>
+      </c>
+      <c r="D78" t="str">
+        <v>8/21/2025, 1:10:48 PM</v>
+      </c>
+      <c r="E78" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F78" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_BatchPending_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B79" t="str">
+        <v>TC005A</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote</v>
+      </c>
+      <c r="D79" t="str">
+        <v>8/21/2025, 1:46:25 PM</v>
+      </c>
+      <c r="E79" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F79" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote/step8_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B80" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D80" t="str">
+        <v>8/21/2025, 1:47:16 PM</v>
+      </c>
+      <c r="E80" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F80" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic/step9_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B81" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D81" t="str">
+        <v>8/21/2025, 1:48:03 PM</v>
+      </c>
+      <c r="E81" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F81" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B82" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D82" t="str">
+        <v>8/21/2025, 1:48:40 PM</v>
+      </c>
+      <c r="E82" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F82" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B83" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D83" t="str">
+        <v>8/21/2025, 1:49:11 PM</v>
+      </c>
+      <c r="E83" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F83" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step14_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B84" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D84" t="str">
+        <v>8/21/2025, 1:49:48 PM</v>
+      </c>
+      <c r="E84" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F84" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Financ_Approval_PurchaseOrder/step9_submit.png</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B85" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D85" t="str">
+        <v>8/21/2025, 1:50:25 PM</v>
+      </c>
+      <c r="E85" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F85" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B86" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D86" t="str">
+        <v>8/21/2025, 1:57:20 PM</v>
+      </c>
+      <c r="E86" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F86" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B87" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D87" t="str">
+        <v>8/21/2025, 1:59:36 PM</v>
+      </c>
+      <c r="E87" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F87" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B88" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D88" t="str">
+        <v>8/21/2025, 2:06:24 PM</v>
+      </c>
+      <c r="E88" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F88" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B89" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D89" t="str">
+        <v>8/21/2025, 2:11:22 PM</v>
+      </c>
+      <c r="E89" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F89" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B90" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D90" t="str">
+        <v>8/21/2025, 2:12:10 PM</v>
+      </c>
+      <c r="E90" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F90" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B91" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D91" t="str">
+        <v>8/21/2025, 2:16:14 PM</v>
+      </c>
+      <c r="E91" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F91" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B92" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D92" t="str">
+        <v>8/21/2025, 2:17:45 PM</v>
+      </c>
+      <c r="E92" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F92" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B93" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D93" t="str">
+        <v>8/21/2025, 2:21:21 PM</v>
+      </c>
+      <c r="E93" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B94" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D94" t="str">
+        <v>8/21/2025, 2:21:56 PM</v>
+      </c>
+      <c r="E94" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F94" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B95" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D95" t="str">
+        <v>8/21/2025, 2:24:49 PM</v>
+      </c>
+      <c r="E95" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F95" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B96" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D96" t="str">
+        <v>8/21/2025, 2:26:28 PM</v>
+      </c>
+      <c r="E96" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F96" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B97" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D97" t="str">
+        <v>8/21/2025, 2:29:32 PM</v>
+      </c>
+      <c r="E97" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F97" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B98" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D98" t="str">
+        <v>8/21/2025, 2:31:43 PM</v>
+      </c>
+      <c r="E98" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F98" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B99" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D99" t="str">
+        <v>8/21/2025, 2:34:05 PM</v>
+      </c>
+      <c r="E99" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B100" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D100" t="str">
+        <v>8/21/2025, 2:34:35 PM</v>
+      </c>
+      <c r="E100" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F100" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B101" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D101" t="str">
+        <v>8/21/2025, 2:37:54 PM</v>
+      </c>
+      <c r="E101" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F101" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B102" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D102" t="str">
+        <v>8/21/2025, 2:39:53 PM</v>
+      </c>
+      <c r="E102" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F102" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B103" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D103" t="str">
+        <v>8/21/2025, 2:41:23 PM</v>
+      </c>
+      <c r="E103" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F103" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B104" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D104" t="str">
+        <v>8/21/2025, 2:43:39 PM</v>
+      </c>
+      <c r="E104" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F104" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B105" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D105" t="str">
+        <v>8/21/2025, 2:44:53 PM</v>
+      </c>
+      <c r="E105" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F105" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B106" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D106" t="str">
+        <v>8/21/2025, 3:06:09 PM</v>
+      </c>
+      <c r="E106" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B107" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D107" t="str">
+        <v>8/21/2025, 3:09:18 PM</v>
+      </c>
+      <c r="E107" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B108" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D108" t="str">
+        <v>8/21/2025, 3:09:55 PM</v>
+      </c>
+      <c r="E108" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B109" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D109" t="str">
+        <v>8/21/2025, 3:10:57 PM</v>
+      </c>
+      <c r="E109" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F109" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B110" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D110" t="str">
+        <v>8/21/2025, 3:11:40 PM</v>
+      </c>
+      <c r="E110" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F110" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B111" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D111" t="str">
+        <v>8/21/2025, 3:12:09 PM</v>
+      </c>
+      <c r="E111" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F111" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step14_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B112" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D112" t="str">
+        <v>8/21/2025, 3:12:47 PM</v>
+      </c>
+      <c r="E112" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B113" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D113" t="str">
+        <v>8/21/2025, 3:13:21 PM</v>
+      </c>
+      <c r="E113" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F113" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B114" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D114" t="str">
+        <v>8/21/2025, 3:14:07 PM</v>
+      </c>
+      <c r="E114" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B115" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D115" t="str">
+        <v>8/21/2025, 3:16:23 PM</v>
+      </c>
+      <c r="E115" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B116" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D116" t="str">
+        <v>8/21/2025, 3:18:57 PM</v>
+      </c>
+      <c r="E116" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B117" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D117" t="str">
+        <v>8/21/2025, 3:23:02 PM</v>
+      </c>
+      <c r="E117" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B118" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D118" t="str">
+        <v>8/21/2025, 3:24:03 PM</v>
+      </c>
+      <c r="E118" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B119" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D119" t="str">
+        <v>8/21/2025, 3:27:13 PM</v>
+      </c>
+      <c r="E119" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F119" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Financ_Approval_PurchaseOrder/step9_submit.png</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B120" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D120" t="str">
+        <v>8/21/2025, 3:27:37 PM</v>
+      </c>
+      <c r="E120" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F120" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B121" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D121" t="str">
+        <v>8/21/2025, 3:31:14 PM</v>
+      </c>
+      <c r="E121" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B122" t="str">
+        <v>TC005A</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote</v>
+      </c>
+      <c r="D122" t="str">
+        <v>8/21/2025, 3:44:37 PM</v>
+      </c>
+      <c r="E122" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F122" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote/step8_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B123" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D123" t="str">
+        <v>8/21/2025, 3:45:03 PM</v>
+      </c>
+      <c r="E123" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F123" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B124" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D124" t="str">
+        <v>8/21/2025, 3:45:03 PM</v>
+      </c>
+      <c r="E124" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B125" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D125" t="str">
+        <v>8/21/2025, 3:45:20 PM</v>
+      </c>
+      <c r="E125" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F125" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic/step9_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B126" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D126" t="str">
+        <v>8/21/2025, 3:45:44 PM</v>
+      </c>
+      <c r="E126" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F126" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B127" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D127" t="str">
+        <v>8/21/2025, 3:46:18 PM</v>
+      </c>
+      <c r="E127" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F127" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B128" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D128" t="str">
+        <v>8/21/2025, 3:46:49 PM</v>
+      </c>
+      <c r="E128" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F128" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step14_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B129" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D129" t="str">
+        <v>8/21/2025, 3:47:38 PM</v>
+      </c>
+      <c r="E129" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F129" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Financ_Approval_PurchaseOrder/step9_submit.png</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B130" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D130" t="str">
+        <v>8/21/2025, 3:47:59 PM</v>
+      </c>
+      <c r="E130" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F130" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B131" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D131" t="str">
+        <v>8/21/2025, 4:05:21 PM</v>
+      </c>
+      <c r="E131" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F131" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B132" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D132" t="str">
+        <v>8/21/2025, 4:09:02 PM</v>
+      </c>
+      <c r="E132" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F132" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B133" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D133" t="str">
+        <v>8/21/2025, 4:14:42 PM</v>
+      </c>
+      <c r="E133" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F133" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B134" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D134" t="str">
+        <v>8/21/2025, 4:15:46 PM</v>
+      </c>
+      <c r="E134" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F134" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B135" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D135" t="str">
+        <v>8/21/2025, 4:16:34 PM</v>
+      </c>
+      <c r="E135" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F135" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B136" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D136" t="str">
+        <v>8/21/2025, 4:17:13 PM</v>
+      </c>
+      <c r="E136" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F136" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B137" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D137" t="str">
+        <v>8/21/2025, 4:19:04 PM</v>
+      </c>
+      <c r="E137" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F137" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B138" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D138" t="str">
+        <v>8/21/2025, 4:24:20 PM</v>
+      </c>
+      <c r="E138" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F138" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B139" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D139" t="str">
+        <v>8/21/2025, 4:26:52 PM</v>
+      </c>
+      <c r="E139" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F139" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B140" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D140" t="str">
+        <v>8/21/2025, 4:28:40 PM</v>
+      </c>
+      <c r="E140" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F140" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B141" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D141" t="str">
+        <v>8/21/2025, 4:29:29 PM</v>
+      </c>
+      <c r="E141" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F141" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B142" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D142" t="str">
+        <v>8/21/2025, 4:33:34 PM</v>
+      </c>
+      <c r="E142" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F142" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B143" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D143" t="str">
+        <v>8/21/2025, 4:39:46 PM</v>
+      </c>
+      <c r="E143" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F143" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B144" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D144" t="str">
+        <v>8/21/2025, 4:46:33 PM</v>
+      </c>
+      <c r="E144" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F144" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B145" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D145" t="str">
+        <v>8/21/2025, 4:48:53 PM</v>
+      </c>
+      <c r="E145" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F145" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B146" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D146" t="str">
+        <v>8/21/2025, 4:51:58 PM</v>
+      </c>
+      <c r="E146" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F146" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B147" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D147" t="str">
+        <v>8/21/2025, 4:57:33 PM</v>
+      </c>
+      <c r="E147" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F147" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B148" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D148" t="str">
+        <v>8/21/2025, 4:59:06 PM</v>
+      </c>
+      <c r="E148" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F148" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B149" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D149" t="str">
+        <v>8/21/2025, 5:03:48 PM</v>
+      </c>
+      <c r="E149" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F149" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B150" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D150" t="str">
+        <v>8/21/2025, 5:05:00 PM</v>
+      </c>
+      <c r="E150" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F150" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B151" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D151" t="str">
+        <v>8/21/2025, 5:30:38 PM</v>
+      </c>
+      <c r="E151" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F151" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B152" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D152" t="str">
+        <v>8/21/2025, 5:31:38 PM</v>
+      </c>
+      <c r="E152" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F152" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B153" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D153" t="str">
+        <v>8/21/2025, 5:36:16 PM</v>
+      </c>
+      <c r="E153" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F153" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B154" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D154" t="str">
+        <v>8/21/2025, 5:43:23 PM</v>
+      </c>
+      <c r="E154" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F154" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B155" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D155" t="str">
+        <v>8/21/2025, 5:44:31 PM</v>
+      </c>
+      <c r="E155" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F155" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B156" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D156" t="str">
+        <v>8/21/2025, 5:47:57 PM</v>
+      </c>
+      <c r="E156" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F156" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_error.png</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B157" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D157" t="str">
+        <v>8/21/2025, 5:49:50 PM</v>
+      </c>
+      <c r="E157" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F157" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B158" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D158" t="str">
+        <v>8/21/2025, 5:55:59 PM</v>
+      </c>
+      <c r="E158" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F158" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B159" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D159" t="str">
+        <v>8/21/2025, 5:59:13 PM</v>
+      </c>
+      <c r="E159" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F159" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step6_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B160" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D160" t="str">
+        <v>8/21/2025, 5:59:51 PM</v>
+      </c>
+      <c r="E160" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F160" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B161" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D161" t="str">
+        <v>8/21/2025, 6:02:46 PM</v>
+      </c>
+      <c r="E161" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F161" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B162" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D162" t="str">
+        <v>8/21/2025, 6:05:45 PM</v>
+      </c>
+      <c r="E162" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F162" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B163" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D163" t="str">
+        <v>8/21/2025, 6:12:18 PM</v>
+      </c>
+      <c r="E163" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F163" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B164" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D164" t="str">
+        <v>8/21/2025, 6:18:21 PM</v>
+      </c>
+      <c r="E164" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F164" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B165" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D165" t="str">
+        <v>8/21/2025, 6:20:26 PM</v>
+      </c>
+      <c r="E165" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F165" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step6_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B166" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D166" t="str">
+        <v>8/21/2025, 6:21:38 PM</v>
+      </c>
+      <c r="E166" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F166" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step6_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B167" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D167" t="str">
+        <v>8/21/2025, 6:23:28 PM</v>
+      </c>
+      <c r="E167" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F167" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B168" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D168" t="str">
+        <v>8/21/2025, 6:26:12 PM</v>
+      </c>
+      <c r="E168" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F168" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step6_error.png</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B169" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D169" t="str">
+        <v>8/21/2025, 6:27:19 PM</v>
+      </c>
+      <c r="E169" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F169" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step6_error.png</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B170" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D170" t="str">
+        <v>8/21/2025, 6:36:23 PM</v>
+      </c>
+      <c r="E170" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F170" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step6_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B171" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D171" t="str">
+        <v>8/21/2025, 6:37:18 PM</v>
+      </c>
+      <c r="E171" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F171" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step6_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B172" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D172" t="str">
+        <v>8/21/2025, 6:38:25 PM</v>
+      </c>
+      <c r="E172" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F172" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step6_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B173" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D173" t="str">
+        <v>8/21/2025, 6:39:51 PM</v>
+      </c>
+      <c r="E173" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F173" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step7_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B174" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D174" t="str">
+        <v>8/21/2025, 6:40:36 PM</v>
+      </c>
+      <c r="E174" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F174" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B175" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D175" t="str">
+        <v>8/21/2025, 6:41:54 PM</v>
+      </c>
+      <c r="E175" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F175" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B176" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D176" t="str">
+        <v>8/21/2025, 6:43:07 PM</v>
+      </c>
+      <c r="E176" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F176" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B177" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D177" t="str">
+        <v>8/22/2025, 9:35:38 AM</v>
+      </c>
+      <c r="E177" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F177" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B178" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D178" t="str">
+        <v>8/22/2025, 9:40:40 AM</v>
+      </c>
+      <c r="E178" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F178" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step6_error.png</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B179" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D179" t="str">
+        <v>8/22/2025, 9:41:37 AM</v>
+      </c>
+      <c r="E179" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F179" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step6_error.png</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B180" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D180" t="str">
+        <v>8/22/2025, 9:42:59 AM</v>
+      </c>
+      <c r="E180" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F180" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B181" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D181" t="str">
+        <v>8/22/2025, 9:49:20 AM</v>
+      </c>
+      <c r="E181" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F181" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B182" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D182" t="str">
+        <v>8/22/2025, 10:02:04 AM</v>
+      </c>
+      <c r="E182" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F182" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B183" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D183" t="str">
+        <v>8/22/2025, 10:37:32 AM</v>
+      </c>
+      <c r="E183" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F183" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B184" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D184" t="str">
+        <v>8/22/2025, 10:42:02 AM</v>
+      </c>
+      <c r="E184" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F184" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>WEB_ScanQR_Logistic</v>
+      </c>
+      <c r="B185" t="str">
+        <v>TC0005B1</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Web_Email_RTS_ScanQR_Logistic_PurchaseOrder</v>
+      </c>
+      <c r="D185" t="str">
+        <v>8/22/2025, 10:55:43 AM</v>
+      </c>
+      <c r="E185" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F185" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_ScanQR_Logistic/step8_remarks_filled.png</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B186" t="str">
+        <v>TC005A</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote</v>
+      </c>
+      <c r="D186" t="str">
+        <v>8/22/2025, 10:55:42 AM</v>
+      </c>
+      <c r="E186" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F186" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote/step8_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B187" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D187" t="str">
+        <v>8/22/2025, 10:55:42 AM</v>
+      </c>
+      <c r="E187" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F187" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B188" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D188" t="str">
+        <v>8/22/2025, 10:55:42 AM</v>
+      </c>
+      <c r="E188" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F188" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B189" t="str">
+        <v>TC005A</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote</v>
+      </c>
+      <c r="D189" t="str">
+        <v>8/22/2025, 11:04:05 AM</v>
+      </c>
+      <c r="E189" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F189" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote/step8_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B190" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D190" t="str">
+        <v>8/22/2025, 11:07:07 AM</v>
+      </c>
+      <c r="E190" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F190" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic/step9_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B191" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D191" t="str">
+        <v>8/22/2025, 11:10:34 AM</v>
+      </c>
+      <c r="E191" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F191" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B192" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D192" t="str">
+        <v>8/22/2025, 11:14:18 AM</v>
+      </c>
+      <c r="E192" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F192" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B193" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D193" t="str">
+        <v>8/22/2025, 11:16:36 AM</v>
+      </c>
+      <c r="E193" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F193" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B194" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D194" t="str">
+        <v>8/22/2025, 11:17:56 AM</v>
+      </c>
+      <c r="E194" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F194" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B195" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D195" t="str">
+        <v>8/22/2025, 11:19:37 AM</v>
+      </c>
+      <c r="E195" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F195" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B196" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D196" t="str">
+        <v>8/22/2025, 11:20:07 AM</v>
+      </c>
+      <c r="E196" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F196" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step14_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B197" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D197" t="str">
+        <v>8/22/2025, 11:22:07 AM</v>
+      </c>
+      <c r="E197" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F197" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B198" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D198" t="str">
+        <v>8/22/2025, 12:31:15 PM</v>
+      </c>
+      <c r="E198" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F198" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B199" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D199" t="str">
+        <v>8/22/2025, 12:35:02 PM</v>
+      </c>
+      <c r="E199" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F199" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B200" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D200" t="str">
+        <v>8/22/2025, 12:36:49 PM</v>
+      </c>
+      <c r="E200" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F200" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B201" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D201" t="str">
+        <v>8/22/2025, 12:38:52 PM</v>
+      </c>
+      <c r="E201" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F201" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B202" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D202" t="str">
+        <v>8/22/2025, 12:40:37 PM</v>
+      </c>
+      <c r="E202" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F202" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B203" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D203" t="str">
+        <v>8/22/2025, 12:44:06 PM</v>
+      </c>
+      <c r="E203" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F203" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B204" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D204" t="str">
+        <v>8/22/2025, 12:57:17 PM</v>
+      </c>
+      <c r="E204" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F204" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B205" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D205" t="str">
+        <v>8/22/2025, 2:49:25 PM</v>
+      </c>
+      <c r="E205" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F205" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B206" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C206" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D206" t="str">
+        <v>8/22/2025, 2:49:58 PM</v>
+      </c>
+      <c r="E206" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F206" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Financ_Approval_PurchaseOrder/step9_submit.png</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B207" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D207" t="str">
+        <v>8/22/2025, 2:50:36 PM</v>
+      </c>
+      <c r="E207" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F207" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B208" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D208" t="str">
+        <v>8/22/2025, 2:57:49 PM</v>
+      </c>
+      <c r="E208" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F208" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B209" t="str">
+        <v>TC005E1</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Web_Admin_Email_RTS_Finance_BatchPending_PurchaseOrder</v>
+      </c>
+      <c r="D209" t="str">
+        <v>8/22/2025, 2:58:53 PM</v>
+      </c>
+      <c r="E209" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F209" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_BatchPending_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B210" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D210" t="str">
+        <v>8/22/2025, 3:00:05 PM</v>
+      </c>
+      <c r="E210" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F210" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B211" t="str">
+        <v>TC005A</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote</v>
+      </c>
+      <c r="D211" t="str">
+        <v>8/22/2025, 3:19:24 PM</v>
+      </c>
+      <c r="E211" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F211" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote/step8_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B212" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D212" t="str">
+        <v>8/22/2025, 3:19:42 PM</v>
+      </c>
+      <c r="E212" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F212" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic/step9_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B213" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D213" t="str">
+        <v>8/22/2025, 3:20:00 PM</v>
+      </c>
+      <c r="E213" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F213" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B214" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D214" t="str">
+        <v>8/22/2025, 3:20:24 PM</v>
+      </c>
+      <c r="E214" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F214" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B215" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D215" t="str">
+        <v>8/22/2025, 3:20:48 PM</v>
+      </c>
+      <c r="E215" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F215" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step14_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B216" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C216" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D216" t="str">
+        <v>8/22/2025, 3:21:16 PM</v>
+      </c>
+      <c r="E216" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F216" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Financ_Approval_PurchaseOrder/step9_submit.png</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B217" t="str">
+        <v>TC005E1</v>
+      </c>
+      <c r="C217" t="str">
+        <v>Web_Admin_Email_RTS_Finance_BatchPending_PurchaseOrder</v>
+      </c>
+      <c r="D217" t="str">
+        <v>8/22/2025, 3:21:32 PM</v>
+      </c>
+      <c r="E217" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F217" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_BatchPending_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B218" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D218" t="str">
+        <v>8/22/2025, 3:21:45 PM</v>
+      </c>
+      <c r="E218" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F218" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B219" t="str">
+        <v>TC005A</v>
+      </c>
+      <c r="C219" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote</v>
+      </c>
+      <c r="D219" t="str">
+        <v>8/22/2025, 4:49:36 PM</v>
+      </c>
+      <c r="E219" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F219" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote/step8_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B220" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C220" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D220" t="str">
+        <v>8/22/2025, 4:49:54 PM</v>
+      </c>
+      <c r="E220" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F220" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B221" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D221" t="str">
+        <v>8/22/2025, 4:50:25 PM</v>
+      </c>
+      <c r="E221" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F221" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B222" t="str">
+        <v>TC005A</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote</v>
+      </c>
+      <c r="D222" t="str">
+        <v>8/22/2025, 4:55:53 PM</v>
+      </c>
+      <c r="E222" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F222" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote/step8_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B223" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D223" t="str">
+        <v>8/22/2025, 4:56:10 PM</v>
+      </c>
+      <c r="E223" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F223" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic/step9_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B224" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D224" t="str">
+        <v>8/22/2025, 4:56:28 PM</v>
+      </c>
+      <c r="E224" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F224" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B225" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D225" t="str">
+        <v>8/22/2025, 4:56:51 PM</v>
+      </c>
+      <c r="E225" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F225" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B226" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D226" t="str">
+        <v>8/22/2025, 4:57:15 PM</v>
+      </c>
+      <c r="E226" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F226" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step14_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B227" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C227" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D227" t="str">
+        <v>8/22/2025, 4:57:43 PM</v>
+      </c>
+      <c r="E227" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F227" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Financ_Approval_PurchaseOrder/step9_submit.png</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B228" t="str">
+        <v>TC005E1</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Web_Admin_Email_RTS_Finance_BatchPending_PurchaseOrder</v>
+      </c>
+      <c r="D228" t="str">
+        <v>8/22/2025, 4:57:59 PM</v>
+      </c>
+      <c r="E228" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F228" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_BatchPending_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B229" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C229" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D229" t="str">
+        <v>8/22/2025, 4:58:12 PM</v>
+      </c>
+      <c r="E229" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F229" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B230" t="str">
+        <v>TC005B3</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic_SelfCollect</v>
+      </c>
+      <c r="D230" t="str">
+        <v>8/22/2025, 5:49:30 PM</v>
+      </c>
+      <c r="E230" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F230" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B231" t="str">
+        <v>TC005B3</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic_SelfCollect</v>
+      </c>
+      <c r="D231" t="str">
+        <v>8/22/2025, 5:51:29 PM</v>
+      </c>
+      <c r="E231" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F231" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic_SelfCollect/step8_error.png</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B232" t="str">
+        <v>TC005B3</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic_SelfCollect</v>
+      </c>
+      <c r="D232" t="str">
+        <v>8/22/2025, 5:54:51 PM</v>
+      </c>
+      <c r="E232" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F232" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic_SelfCollect/step8_error.png</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B233" t="str">
+        <v>TC005B3</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic_SelfCollect</v>
+      </c>
+      <c r="D233" t="str">
+        <v>8/22/2025, 5:56:18 PM</v>
+      </c>
+      <c r="E233" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F233" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic_SelfCollect/step8_error.png</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B234" t="str">
+        <v>TC005B3</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic_SelfCollect</v>
+      </c>
+      <c r="D234" t="str">
+        <v>8/22/2025, 5:58:09 PM</v>
+      </c>
+      <c r="E234" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F234" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic_SelfCollect/step8_error.png</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B235" t="str">
+        <v>TC005B3</v>
+      </c>
+      <c r="C235" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic_SelfCollect</v>
+      </c>
+      <c r="D235" t="str">
+        <v>8/22/2025, 6:00:32 PM</v>
+      </c>
+      <c r="E235" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F235" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic_SelfCollect/step8_error.png</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B236" t="str">
+        <v>TC005B3</v>
+      </c>
+      <c r="C236" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic_SelfCollect</v>
+      </c>
+      <c r="D236" t="str">
+        <v>8/22/2025, 6:03:08 PM</v>
+      </c>
+      <c r="E236" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F236" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic_SelfCollect/step8_error.png</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B237" t="str">
+        <v>TC005B3</v>
+      </c>
+      <c r="C237" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic_SelfCollect</v>
+      </c>
+      <c r="D237" t="str">
+        <v>8/22/2025, 6:05:39 PM</v>
+      </c>
+      <c r="E237" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F237" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic_SelfCollect/step8_error.png</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B238" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D238" t="str">
+        <v>8/22/2025, 6:08:45 PM</v>
+      </c>
+      <c r="E238" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F238" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic_SelfCollect/step9_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B239" t="str">
+        <v>TC005A1</v>
+      </c>
+      <c r="C239" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote_SelfDrop-off</v>
+      </c>
+      <c r="D239" t="str">
+        <v>8/22/2025, 6:25:56 PM</v>
+      </c>
+      <c r="E239" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F239" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote_SelfDrop-off/step8_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B240" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C240" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D240" t="str">
+        <v>8/22/2025, 6:26:14 PM</v>
+      </c>
+      <c r="E240" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F240" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B241" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic</v>
+      </c>
+      <c r="D241" t="str">
+        <v>8/22/2025, 6:26:37 PM</v>
+      </c>
+      <c r="E241" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F241" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic_SelfCollect/step9_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B242" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D242" t="str">
+        <v>8/22/2025, 6:26:59 PM</v>
+      </c>
+      <c r="E242" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F242" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B243" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C243" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D243" t="str">
+        <v>8/22/2025, 6:27:23 PM</v>
+      </c>
+      <c r="E243" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F243" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step14_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B244" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C244" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D244" t="str">
+        <v>8/22/2025, 6:27:51 PM</v>
+      </c>
+      <c r="E244" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F244" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Financ_Approval_PurchaseOrder/step9_submit.png</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B245" t="str">
+        <v>TC005E1</v>
+      </c>
+      <c r="C245" t="str">
+        <v>Web_Admin_Email_RTS_Finance_BatchPending_PurchaseOrder</v>
+      </c>
+      <c r="D245" t="str">
+        <v>8/22/2025, 6:28:08 PM</v>
+      </c>
+      <c r="E245" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F245" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_BatchPending_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B246" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C246" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D246" t="str">
+        <v>8/22/2025, 6:28:21 PM</v>
+      </c>
+      <c r="E246" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F246" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B247" t="str">
+        <v>TC005A</v>
+      </c>
+      <c r="C247" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote_DriverCollect</v>
+      </c>
+      <c r="D247" t="str">
+        <v>8/22/2025, 6:32:33 PM</v>
+      </c>
+      <c r="E247" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F247" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote_DriverCollect/step8_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B248" t="str">
+        <v>TC005B</v>
+      </c>
+      <c r="C248" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic_DriverCollect</v>
+      </c>
+      <c r="D248" t="str">
+        <v>8/22/2025, 6:32:51 PM</v>
+      </c>
+      <c r="E248" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F248" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic_DriverCollect/step9_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B249" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C249" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D249" t="str">
+        <v>8/22/2025, 6:33:09 PM</v>
+      </c>
+      <c r="E249" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F249" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B250" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C250" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D250" t="str">
+        <v>8/22/2025, 6:33:32 PM</v>
+      </c>
+      <c r="E250" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F250" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B251" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C251" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D251" t="str">
+        <v>8/22/2025, 6:33:56 PM</v>
+      </c>
+      <c r="E251" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F251" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step14_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B252" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C252" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D252" t="str">
+        <v>8/22/2025, 6:34:24 PM</v>
+      </c>
+      <c r="E252" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F252" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Financ_Approval_PurchaseOrder/step9_submit.png</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B253" t="str">
+        <v>TC005E1</v>
+      </c>
+      <c r="C253" t="str">
+        <v>Web_Admin_Email_RTS_Finance_BatchPending_PurchaseOrder</v>
+      </c>
+      <c r="D253" t="str">
+        <v>8/22/2025, 6:34:41 PM</v>
+      </c>
+      <c r="E253" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F253" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_BatchPending_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B254" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C254" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D254" t="str">
+        <v>8/22/2025, 6:34:53 PM</v>
+      </c>
+      <c r="E254" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F254" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B255" t="str">
+        <v>TC005A1</v>
+      </c>
+      <c r="C255" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote_SelfDrop-off</v>
+      </c>
+      <c r="D255" t="str">
+        <v>8/22/2025, 6:35:47 PM</v>
+      </c>
+      <c r="E255" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F255" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote_SelfDrop-off/step8_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B256" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C256" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D256" t="str">
+        <v>8/22/2025, 6:36:09 PM</v>
+      </c>
+      <c r="E256" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F256" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B257" t="str">
+        <v>TC005B3</v>
+      </c>
+      <c r="C257" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic_SelfCollect</v>
+      </c>
+      <c r="D257" t="str">
+        <v>8/22/2025, 6:36:33 PM</v>
+      </c>
+      <c r="E257" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F257" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic_SelfCollect/step9_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B258" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C258" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D258" t="str">
+        <v>8/22/2025, 6:36:54 PM</v>
+      </c>
+      <c r="E258" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F258" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B259" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C259" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D259" t="str">
+        <v>8/22/2025, 6:37:18 PM</v>
+      </c>
+      <c r="E259" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F259" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_BeginGrading/step14_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B260" t="str">
+        <v>TC005E</v>
+      </c>
+      <c r="C260" t="str">
+        <v>Web_Admin_Email_RTS_Finance_Approval_PurchaseOrder</v>
+      </c>
+      <c r="D260" t="str">
+        <v>8/22/2025, 6:37:47 PM</v>
+      </c>
+      <c r="E260" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F260" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Financ_Approval_PurchaseOrder/step9_submit.png</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B261" t="str">
+        <v>TC005E1</v>
+      </c>
+      <c r="C261" t="str">
+        <v>Web_Admin_Email_RTS_Finance_BatchPending_PurchaseOrder</v>
+      </c>
+      <c r="D261" t="str">
+        <v>8/22/2025, 6:38:04 PM</v>
+      </c>
+      <c r="E261" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F261" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_BatchPending_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B262" t="str">
+        <v>TC005E2</v>
+      </c>
+      <c r="C262" t="str">
+        <v>Web_Admin_Email_RTS_Finance_CompleteBatch_PurchaseOrder</v>
+      </c>
+      <c r="D262" t="str">
+        <v>8/22/2025, 6:38:16 PM</v>
+      </c>
+      <c r="E262" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F262" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Finance_CompleteBatch_PurchaseOrder/step8_batch_approve_signoff_grading.png</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B263" t="str">
+        <v>TC005A1</v>
+      </c>
+      <c r="C263" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote_SelfDrop-off</v>
+      </c>
+      <c r="D263" t="str">
+        <v>8/22/2025, 6:39:15 PM</v>
+      </c>
+      <c r="E263" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F263" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote_SelfDrop-off/step8_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B264" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C264" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D264" t="str">
+        <v>8/22/2025, 6:39:33 PM</v>
+      </c>
+      <c r="E264" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F264" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B265" t="str">
+        <v>TC005B3</v>
+      </c>
+      <c r="C265" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic_SelfCollect</v>
+      </c>
+      <c r="D265" t="str">
+        <v>8/22/2025, 6:39:57 PM</v>
+      </c>
+      <c r="E265" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F265" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Assign_Logistic_SelfCollect/step9_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B266" t="str">
+        <v>TC005C</v>
+      </c>
+      <c r="C266" t="str">
+        <v>Web_Admin_Email_RTS_Collect_Inbound</v>
+      </c>
+      <c r="D266" t="str">
+        <v>8/22/2025, 6:40:19 PM</v>
+      </c>
+      <c r="E266" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F266" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Collect_Inbound/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B267" t="str">
+        <v>TC005D</v>
+      </c>
+      <c r="C267" t="str">
+        <v>Web_Admin_Email_RTS_BeginGrading</v>
+      </c>
+      <c r="D267" t="str">
+        <v>8/22/2025, 6:40:43 PM</v>
+      </c>
+      <c r="E267" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F267" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B268" t="str">
+        <v>TC005A1</v>
+      </c>
+      <c r="C268" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote_SelfDrop-off</v>
+      </c>
+      <c r="D268" t="str">
+        <v>8/22/2025, 6:42:16 PM</v>
+      </c>
+      <c r="E268" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F268" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote_SelfDrop-off/step8_quotation_approved.png</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B269" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C269" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D269" t="str">
+        <v>8/22/2025, 6:42:34 PM</v>
+      </c>
+      <c r="E269" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F269" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_CannotScanQR_Logistic/step10_driver_collected.png</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B270" t="str">
+        <v>TC005B3</v>
+      </c>
+      <c r="C270" t="str">
+        <v>Web_Admin_Email_RTS_Assign_Logistic_SelfCollect</v>
+      </c>
+      <c r="D270" t="str">
+        <v>8/22/2025, 6:42:57 PM</v>
+      </c>
+      <c r="E270" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F270" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F270"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
+++ b/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F270"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5802,9 +5802,69 @@
         <v>Screenshot failed</v>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B271" t="str">
+        <v>TC005A1</v>
+      </c>
+      <c r="C271" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote_SelfDrop-off</v>
+      </c>
+      <c r="D271" t="str">
+        <v>8/25/2025, 10:19:26 PM</v>
+      </c>
+      <c r="E271" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F271" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B272" t="str">
+        <v>TC005B2</v>
+      </c>
+      <c r="C272" t="str">
+        <v>Web_Admin_Email_RTS_CannotScanQR_Logistic</v>
+      </c>
+      <c r="D272" t="str">
+        <v>8/25/2025, 10:19:57 PM</v>
+      </c>
+      <c r="E272" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F272" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B273" t="str">
+        <v>TC005A1</v>
+      </c>
+      <c r="C273" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote_SelfDrop-off</v>
+      </c>
+      <c r="D273" t="str">
+        <v>8/25/2025, 10:20:22 PM</v>
+      </c>
+      <c r="E273" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F273" t="str">
+        <v>Screenshot failed</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F270"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F273"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
+++ b/testNadz/2.Web/AutoReg_FBG2.0_Happy_Flow_E2E_Web.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5862,9 +5862,29 @@
         <v>Screenshot failed</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B274" t="str">
+        <v>TC005A</v>
+      </c>
+      <c r="C274" t="str">
+        <v>Web_Admin_Email_RTS_Approve_Quote_DriverCollect</v>
+      </c>
+      <c r="D274" t="str">
+        <v>9/3/2025, 2:34:10 PM</v>
+      </c>
+      <c r="E274" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F274" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/2.Web/screenshots/web_Email_RTS_Approve_Quote_DriverCollect/step8_quotation_approved.png</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F273"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F274"/>
   </ignoredErrors>
 </worksheet>
 </file>